--- a/data/outputs/management/71.xlsx
+++ b/data/outputs/management/71.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ62"/>
+  <dimension ref="A1:BR62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1337,6 +1344,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1540,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1739,6 +1748,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1938,6 +1948,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2153,6 +2164,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2380,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4212731</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2579,6 +2596,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2790,6 +2808,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2993,6 +3012,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3200,6 +3220,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3415,6 +3436,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3630,6 +3652,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3845,6 +3868,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4052,6 +4076,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4259,6 +4284,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4478,6 +4504,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>8158566</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4677,6 +4708,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4763,7 +4795,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>GAO, Liang/0000-0002-1485-0722; Li, Xinyu/0000-0002-3730-0360; </t>
+          <t>GAO, Liang/0000-0002-1485-0722; Li, Xinyu/0000-0002-3730-0360;</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -4892,6 +4924,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4978,7 +5011,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>MOON, ILKYEONG/0000-0002-7072-1351; </t>
+          <t>MOON, ILKYEONG/0000-0002-7072-1351;</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -5107,6 +5140,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5314,6 +5348,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5521,6 +5556,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5720,6 +5756,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5927,6 +5964,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6134,6 +6172,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6345,6 +6384,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6552,6 +6592,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6759,6 +6800,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6966,6 +7008,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7173,6 +7216,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7380,6 +7424,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7579,6 +7624,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7778,6 +7824,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7993,6 +8040,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8208,6 +8256,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8415,6 +8464,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8622,6 +8672,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8829,6 +8880,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9036,6 +9088,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9251,6 +9304,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9462,6 +9516,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9669,6 +9724,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9876,6 +9932,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10075,6 +10132,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10278,6 +10336,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10493,6 +10552,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10700,6 +10760,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10899,6 +10960,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>3005012</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11106,6 +11172,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11313,6 +11380,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>3028643</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11520,6 +11592,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11723,6 +11796,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11922,6 +11996,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12121,6 +12196,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12328,6 +12404,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12535,6 +12612,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12746,6 +12824,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>2723643</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12949,6 +13032,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13148,6 +13232,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13351,6 +13436,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
